--- a/fhir/finnish-smart/StructureDefinition-fi-smart-immunization.xlsx
+++ b/fhir/finnish-smart/StructureDefinition-fi-smart-immunization.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$121</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-rc1</t>
+    <t>2.0.0-rc2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T22:29:11+02:00</t>
+    <t>2025-05-11T17:07:13+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1928,6 +1931,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -2113,17 +2131,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.6328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="59.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="234.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="202.4375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2132,27 +2150,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.84375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.41796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.93359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.53125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.6015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.35546875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="227.703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="156.00390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="123.66015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="196.421875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="134.5703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2280,7 +2298,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2395,7 +2413,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -2512,7 +2530,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -2627,7 +2645,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2744,7 +2762,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2861,7 +2879,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>117</v>
       </c>
@@ -2978,7 +2996,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>125</v>
       </c>
@@ -3095,7 +3113,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>133</v>
       </c>
@@ -3208,7 +3226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>141</v>
       </c>
@@ -3325,7 +3343,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>146</v>
       </c>
@@ -3444,7 +3462,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -3559,7 +3577,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>161</v>
       </c>
@@ -3578,7 +3596,7 @@
         <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>90</v>
@@ -3676,7 +3694,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>171</v>
       </c>
@@ -3695,7 +3713,7 @@
         <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>78</v>
@@ -3793,7 +3811,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>181</v>
       </c>
@@ -3812,7 +3830,7 @@
         <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>78</v>
@@ -3908,7 +3926,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>191</v>
       </c>
@@ -4023,7 +4041,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>197</v>
       </c>
@@ -4140,7 +4158,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>202</v>
       </c>
@@ -4257,7 +4275,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>212</v>
       </c>
@@ -4378,7 +4396,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>215</v>
       </c>
@@ -4493,7 +4511,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>217</v>
       </c>
@@ -4610,7 +4628,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>219</v>
       </c>
@@ -4729,7 +4747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>229</v>
       </c>
@@ -4846,7 +4864,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>237</v>
       </c>
@@ -4963,7 +4981,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>245</v>
       </c>
@@ -5080,7 +5098,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>253</v>
       </c>
@@ -5199,7 +5217,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>263</v>
       </c>
@@ -5320,7 +5338,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>265</v>
       </c>
@@ -5435,7 +5453,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>266</v>
       </c>
@@ -5552,7 +5570,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>267</v>
       </c>
@@ -5671,7 +5689,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>269</v>
       </c>
@@ -5788,7 +5806,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>270</v>
       </c>
@@ -5905,7 +5923,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>271</v>
       </c>
@@ -6022,7 +6040,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>272</v>
       </c>
@@ -6141,7 +6159,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>273</v>
       </c>
@@ -6260,7 +6278,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>281</v>
       </c>
@@ -6279,7 +6297,7 @@
         <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>78</v>
@@ -6375,7 +6393,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>289</v>
       </c>
@@ -6490,7 +6508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>297</v>
       </c>
@@ -6509,7 +6527,7 @@
         <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>78</v>
@@ -6607,7 +6625,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>307</v>
       </c>
@@ -6722,7 +6740,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>313</v>
       </c>
@@ -6839,7 +6857,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>320</v>
       </c>
@@ -6956,7 +6974,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>327</v>
       </c>
@@ -7071,7 +7089,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>335</v>
       </c>
@@ -7186,7 +7204,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>342</v>
       </c>
@@ -7301,7 +7319,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>348</v>
       </c>
@@ -7416,7 +7434,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>354</v>
       </c>
@@ -7531,7 +7549,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>362</v>
       </c>
@@ -7646,7 +7664,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>363</v>
       </c>
@@ -7763,7 +7781,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>364</v>
       </c>
@@ -7880,7 +7898,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>365</v>
       </c>
@@ -8001,7 +8019,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>367</v>
       </c>
@@ -8116,7 +8134,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>369</v>
       </c>
@@ -8233,7 +8251,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>371</v>
       </c>
@@ -8352,7 +8370,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>374</v>
       </c>
@@ -8469,7 +8487,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>376</v>
       </c>
@@ -8586,7 +8604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>378</v>
       </c>
@@ -8703,7 +8721,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>380</v>
       </c>
@@ -8822,7 +8840,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>382</v>
       </c>
@@ -8941,7 +8959,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>384</v>
       </c>
@@ -9056,7 +9074,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>392</v>
       </c>
@@ -9171,7 +9189,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>393</v>
       </c>
@@ -9288,7 +9306,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>394</v>
       </c>
@@ -9405,7 +9423,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>395</v>
       </c>
@@ -9526,7 +9544,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>397</v>
       </c>
@@ -9641,7 +9659,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>399</v>
       </c>
@@ -9758,7 +9776,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>401</v>
       </c>
@@ -9877,7 +9895,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>404</v>
       </c>
@@ -9994,7 +10012,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>406</v>
       </c>
@@ -10111,7 +10129,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>408</v>
       </c>
@@ -10228,7 +10246,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>410</v>
       </c>
@@ -10347,7 +10365,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>412</v>
       </c>
@@ -10466,7 +10484,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
         <v>413</v>
       </c>
@@ -10581,7 +10599,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
         <v>419</v>
       </c>
@@ -10696,7 +10714,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
         <v>426</v>
       </c>
@@ -10811,7 +10829,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>427</v>
       </c>
@@ -10928,7 +10946,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
         <v>428</v>
       </c>
@@ -11047,7 +11065,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
         <v>433</v>
       </c>
@@ -11162,7 +11180,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
         <v>441</v>
       </c>
@@ -11279,7 +11297,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
         <v>449</v>
       </c>
@@ -11394,7 +11412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
         <v>456</v>
       </c>
@@ -11509,7 +11527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
         <v>463</v>
       </c>
@@ -11624,7 +11642,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
         <v>467</v>
       </c>
@@ -11743,7 +11761,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
         <v>473</v>
       </c>
@@ -11858,7 +11876,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
         <v>478</v>
       </c>
@@ -11973,7 +11991,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
         <v>482</v>
       </c>
@@ -12088,7 +12106,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
         <v>483</v>
       </c>
@@ -12205,7 +12223,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
         <v>484</v>
       </c>
@@ -12324,7 +12342,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
         <v>485</v>
       </c>
@@ -12439,7 +12457,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
         <v>489</v>
       </c>
@@ -12554,7 +12572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
         <v>492</v>
       </c>
@@ -12669,7 +12687,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
         <v>496</v>
       </c>
@@ -12784,7 +12802,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
         <v>500</v>
       </c>
@@ -12899,7 +12917,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
         <v>506</v>
       </c>
@@ -13014,7 +13032,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
         <v>511</v>
       </c>
@@ -13131,7 +13149,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
         <v>517</v>
       </c>
@@ -13246,7 +13264,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
         <v>518</v>
       </c>
@@ -13363,7 +13381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
         <v>519</v>
       </c>
@@ -13482,7 +13500,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
         <v>520</v>
       </c>
@@ -13597,7 +13615,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
         <v>524</v>
       </c>
@@ -13712,7 +13730,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
         <v>530</v>
       </c>
@@ -13827,7 +13845,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
         <v>535</v>
       </c>
@@ -13942,7 +13960,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
         <v>538</v>
       </c>
@@ -14057,7 +14075,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
         <v>539</v>
       </c>
@@ -14174,7 +14192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
         <v>540</v>
       </c>
@@ -14293,7 +14311,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
         <v>541</v>
       </c>
@@ -14408,7 +14426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
         <v>544</v>
       </c>
@@ -14523,7 +14541,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
         <v>547</v>
       </c>
@@ -14638,7 +14656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
         <v>552</v>
       </c>
@@ -14753,7 +14771,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
         <v>553</v>
       </c>
@@ -14870,7 +14888,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
         <v>554</v>
       </c>
@@ -14987,7 +15005,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
         <v>556</v>
       </c>
@@ -15108,7 +15126,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
         <v>558</v>
       </c>
@@ -15223,7 +15241,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
         <v>560</v>
       </c>
@@ -15340,7 +15358,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
         <v>562</v>
       </c>
@@ -15459,7 +15477,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
         <v>565</v>
       </c>
@@ -15576,7 +15594,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
         <v>567</v>
       </c>
@@ -15693,7 +15711,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
         <v>569</v>
       </c>
@@ -15810,7 +15828,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
         <v>571</v>
       </c>
@@ -15929,7 +15947,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
         <v>573</v>
       </c>
@@ -16048,7 +16066,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
         <v>574</v>
       </c>
@@ -16165,7 +16183,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
         <v>579</v>
       </c>
@@ -16283,6 +16301,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO121">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI120">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>